--- a/supdata1.xlsx
+++ b/supdata1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="24816"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PWS &amp; Meesterproef\Meesterproef\Coding\bacterialclassification\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="0" windowWidth="31440" windowHeight="24120" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="7965" yWindow="0" windowWidth="31440" windowHeight="24120" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="3" r:id="rId1"/>
@@ -6170,11 +6175,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7206,64 +7211,59 @@
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
@@ -7313,17 +7313,22 @@
     <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="104"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_Tabelle1" xfId="109"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="XLConnect.General" xfId="42"/>
     <cellStyle name="XLConnect.Header" xfId="45"/>
   </cellStyles>
@@ -7332,6 +7337,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -7627,17 +7635,17 @@
   <dimension ref="A1:F16372"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="13" width="10" style="2" customWidth="1"/>
-    <col min="14" max="19" width="11.33203125" style="2"/>
-    <col min="20" max="20" width="11.33203125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="11.33203125" style="2"/>
+    <col min="14" max="19" width="11.28515625" style="2"/>
+    <col min="20" max="20" width="11.28515625" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="11.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -57229,38 +57237,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="20" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="27" width="11.33203125" style="18"/>
-    <col min="28" max="28" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="31" max="33" width="11.33203125" style="18"/>
+    <col min="14" max="14" width="13.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="11.28515625" style="18"/>
+    <col min="28" max="28" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="11.28515625" style="18"/>
     <col min="34" max="34" width="22" style="18" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="11.33203125" style="20"/>
+    <col min="35" max="16384" width="11.28515625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="16" thickBot="1">
+    <row r="1" spans="1:34" ht="15.75" thickBot="1">
       <c r="A1" s="30" t="s">
         <v>44</v>
       </c>
@@ -57303,7 +57311,7 @@
       <c r="N1" s="89"/>
       <c r="O1" s="89"/>
     </row>
-    <row r="2" spans="1:34" s="19" customFormat="1">
+    <row r="2" spans="1:34" s="19" customFormat="1" ht="15">
       <c r="A2" s="90" t="s">
         <v>17</v>
       </c>
@@ -63740,26 +63748,26 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A129" sqref="A129"/>
+      <selection activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="13" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>299</v>
       </c>
@@ -68803,22 +68811,22 @@
       <selection activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="47" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="47" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="47" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="62"/>
-    <col min="12" max="16384" width="12.5" style="47"/>
+    <col min="4" max="4" width="6.85546875" style="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="45" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="62"/>
+    <col min="12" max="16384" width="12.42578125" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="42" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:12" s="42" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="30" t="s">
         <v>44</v>
       </c>
@@ -70150,15 +70158,15 @@
       <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="63" t="s">
         <v>299</v>
       </c>
@@ -70952,23 +70960,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+    <sheetView topLeftCell="A178" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
       <selection activeCell="B290" sqref="B290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" style="71" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="5"/>
+    <col min="1" max="1" width="9.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="71" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="32" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:9" s="32" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="66" t="s">
         <v>44</v>
       </c>
@@ -77999,7 +78007,7 @@
       </c>
       <c r="I293" s="70"/>
     </row>
-    <row r="294" spans="1:9" ht="15">
+    <row r="294" spans="1:9" ht="15.75">
       <c r="A294" s="72" t="s">
         <v>1911</v>
       </c>
@@ -78023,7 +78031,7 @@
       </c>
       <c r="I294" s="70"/>
     </row>
-    <row r="295" spans="1:9" ht="15">
+    <row r="295" spans="1:9" ht="15.75">
       <c r="A295" s="72" t="s">
         <v>1914</v>
       </c>
@@ -78047,7 +78055,7 @@
       </c>
       <c r="I295" s="70"/>
     </row>
-    <row r="296" spans="1:9" ht="15">
+    <row r="296" spans="1:9" ht="15.75">
       <c r="A296" s="72" t="s">
         <v>1916</v>
       </c>
@@ -78071,7 +78079,7 @@
       </c>
       <c r="I296" s="70"/>
     </row>
-    <row r="297" spans="1:9" ht="15">
+    <row r="297" spans="1:9" ht="15.75">
       <c r="A297" s="72" t="s">
         <v>1918</v>
       </c>
@@ -78095,7 +78103,7 @@
       </c>
       <c r="I297" s="70"/>
     </row>
-    <row r="298" spans="1:9" ht="15">
+    <row r="298" spans="1:9" ht="15.75">
       <c r="A298" s="72" t="s">
         <v>1920</v>
       </c>
@@ -78138,22 +78146,22 @@
       <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="4"/>
+    <col min="10" max="10" width="17.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="76" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:11" s="76" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="63" t="s">
         <v>299</v>
       </c>
@@ -87709,19 +87717,19 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="83" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="80" t="s">
         <v>44</v>
       </c>
@@ -88426,22 +88434,22 @@
       <selection activeCell="T63" sqref="T63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="10.85546875" style="2"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="2"/>
+    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="2"/>
+    <col min="10" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="10" t="s">
         <v>299</v>
       </c>
